--- a/public/file_import/DATA_PRODUK.xlsx
+++ b/public/file_import/DATA_PRODUK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Aplikasi-Analisa-Penjualan-Apriori\public\file_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA68156F-CF25-42D0-80B8-594AEEA0BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A24869-46D4-495D-82B0-60AB935D799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0976DD4B-6CF9-4F33-8BD4-974E187ED5FB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>Baycline Pewangi 50 gr</t>
   </si>
@@ -102,16 +102,293 @@
   </si>
   <si>
     <t>Dalgona Sari Coffe</t>
+  </si>
+  <si>
+    <t>Le Minerale 1 Ltr</t>
+  </si>
+  <si>
+    <t>MINUMAN</t>
+  </si>
+  <si>
+    <t>BUKU EXPEDISI 200 PERMATA</t>
+  </si>
+  <si>
+    <t>SERITI BUKU PANJANG 1S</t>
+  </si>
+  <si>
+    <t>BUKU MEWARNAI CB 015</t>
+  </si>
+  <si>
+    <t>SERITI BUKU EXP 100</t>
+  </si>
+  <si>
+    <t>DIARY SWEET DREAM 7668K</t>
+  </si>
+  <si>
+    <t>SERITI BUKU TULIS HALUS 1'S</t>
+  </si>
+  <si>
+    <t>DIARY SPECIAL THINGS D9901</t>
+  </si>
+  <si>
+    <t>DIARY HAPPY WHITE TG</t>
+  </si>
+  <si>
+    <t>EN DODOL SPECIAL.</t>
+  </si>
+  <si>
+    <t>SURYA TEH CELUP 25'S</t>
+  </si>
+  <si>
+    <t>SURYA TEH CELUP 25'S ASLI</t>
+  </si>
+  <si>
+    <t>SURYA TEH BUBUK 50G</t>
+  </si>
+  <si>
+    <t>BUKU FOLIO 100 GELATIK</t>
+  </si>
+  <si>
+    <t>BUKU FOLIO GK 100</t>
+  </si>
+  <si>
+    <t>BUKU GAMBAR S LUX KW</t>
+  </si>
+  <si>
+    <t>NOTE'S A6 FX 5875</t>
+  </si>
+  <si>
+    <t>LEM RED K</t>
+  </si>
+  <si>
+    <t>LEM RED B</t>
+  </si>
+  <si>
+    <t>DIARY KUNCI BB 001</t>
+  </si>
+  <si>
+    <t>STUDY SET KB 702</t>
+  </si>
+  <si>
+    <t>STUDY SET XL 002</t>
+  </si>
+  <si>
+    <t>KERTAS LIPAT WSC 16X16 50S</t>
+  </si>
+  <si>
+    <t>SINGA TEH CELUP 7'SX12</t>
+  </si>
+  <si>
+    <t>SINGA TEH CELUP 25'S</t>
+  </si>
+  <si>
+    <t>TEA COCO CELUP 25'S TEA BAG</t>
+  </si>
+  <si>
+    <t>KAMUS LENGKAP PRIBAHASA INDO</t>
+  </si>
+  <si>
+    <t>BUKU RPAL SJ</t>
+  </si>
+  <si>
+    <t>BUKU RPUL SJ</t>
+  </si>
+  <si>
+    <t>KAMUS MANDARIN TG</t>
+  </si>
+  <si>
+    <t>BUKU ATLAS PUSTAKA ILMU</t>
+  </si>
+  <si>
+    <t>BUKU BELAJAR  PENJUMLAHAN</t>
+  </si>
+  <si>
+    <t>BUKU (B) GLOBAL SJ</t>
+  </si>
+  <si>
+    <t>KAMUS LENGKAP ING-INDO SJ</t>
+  </si>
+  <si>
+    <t>KAMUS 900M PI</t>
+  </si>
+  <si>
+    <t>KAMUS 800M PI</t>
+  </si>
+  <si>
+    <t>KAMUS 700M BHS ING-IND LENGKAP</t>
+  </si>
+  <si>
+    <t>KAMUS BHS.IND SJ</t>
+  </si>
+  <si>
+    <t>BUKU BELAJAR MAMBACA 1A</t>
+  </si>
+  <si>
+    <t>BUKU TUNTUNAN SHALAT B SJ</t>
+  </si>
+  <si>
+    <t>BUKU JUZ AMMA B SJ</t>
+  </si>
+  <si>
+    <t>BUKU BELAJAR  PERKALIAN</t>
+  </si>
+  <si>
+    <t>BUKU PINTAR ANAK JUARA</t>
+  </si>
+  <si>
+    <t>BUKU BELAJAR MEMBACA IB</t>
+  </si>
+  <si>
+    <t>BUKU BELAJAR MEMBACA</t>
+  </si>
+  <si>
+    <t>BUKU SHALAT SUNAH PILIHAN SJ</t>
+  </si>
+  <si>
+    <t>BUKU SIFAT 20  ASMAUL HUSNA</t>
+  </si>
+  <si>
+    <t>BUKU AYAT ALQURAN&amp;ASMAUL HUSNA SJ</t>
+  </si>
+  <si>
+    <t>BUKU TERTAWA BERSAMA ABU NAWAS SJ</t>
+  </si>
+  <si>
+    <t>BUKU TIMUN MAS SJ</t>
+  </si>
+  <si>
+    <t>BUKU SANGKURIANG SJ</t>
+  </si>
+  <si>
+    <t>BUKU PUTRI SALJU SJ</t>
+  </si>
+  <si>
+    <t>BUKU TABEL MTK SJ</t>
+  </si>
+  <si>
+    <t>BUKU ANDE2 LUMUT</t>
+  </si>
+  <si>
+    <t>BUKU MALIN KUNDANG SJ</t>
+  </si>
+  <si>
+    <t>BUKU CINDERELLA SJ</t>
+  </si>
+  <si>
+    <t>BUKU BELAJAR SHALAT&amp;DOA SJ</t>
+  </si>
+  <si>
+    <t>BUKU TUNTUNAN SHALAT TOHA B SJ</t>
+  </si>
+  <si>
+    <t>BUKU KHUTBAH JUM'AAT SJ</t>
+  </si>
+  <si>
+    <t>KAMUS POPULER SAINT&amp;TEHNOLOGI SJ</t>
+  </si>
+  <si>
+    <t>KAMUS POPULER ISTILAH KIMIA SJ</t>
+  </si>
+  <si>
+    <t>BUKU ISTILAH FISIKA</t>
+  </si>
+  <si>
+    <t>BUKU KADO PENGANTIN SJ</t>
+  </si>
+  <si>
+    <t>BUKU PIDACIL SJ</t>
+  </si>
+  <si>
+    <t>BUKU BERTAMBAH KAYA GDN SHALAT DHUH</t>
+  </si>
+  <si>
+    <t>BUKU RPIL SJ</t>
+  </si>
+  <si>
+    <t>BUKU CARA CEPAT MENGUASAI TENSES</t>
+  </si>
+  <si>
+    <t>BUKU MENGENAL DASAR KOMPUTER SJ</t>
+  </si>
+  <si>
+    <t>BUKU PANDUAN INTERNET SJ</t>
+  </si>
+  <si>
+    <t>BUKU BERGURU KEPADA NABI KHIDIR</t>
+  </si>
+  <si>
+    <t>BUKU RATAPAN GADIS DI ATAS KUBUR</t>
+  </si>
+  <si>
+    <t>BUKU KUNCI IBADAH SJ</t>
+  </si>
+  <si>
+    <t>BUKU PINTAR ATLAS SJ</t>
+  </si>
+  <si>
+    <t>BUKU BIMBINGAN SHALAT LENGKAP SJ</t>
+  </si>
+  <si>
+    <t>BUKU BIMBINGAN SHALAT PI/SJ</t>
+  </si>
+  <si>
+    <t>KAMUS BHS PRANCIS SJ</t>
+  </si>
+  <si>
+    <t>BUKU PANDUAN MC&amp;PIDATO</t>
+  </si>
+  <si>
+    <t>BUKU ASMAUL HUSNA AMELIA</t>
+  </si>
+  <si>
+    <t>KAMUS LENGKAP BHS INDO AMELIA</t>
+  </si>
+  <si>
+    <t>BUKU ATLAS TG ITA</t>
+  </si>
+  <si>
+    <t>BUKU JUZ 'AMMA  B</t>
+  </si>
+  <si>
+    <t>BUKU EYD</t>
+  </si>
+  <si>
+    <t>KAMUS B.ING CV,ITA HS</t>
+  </si>
+  <si>
+    <t>KAMUS 900M B CV ITA</t>
+  </si>
+  <si>
+    <t>BUKU SIKSA NERAKA CV ITA</t>
+  </si>
+  <si>
+    <t>KAMUS BHS INDO B ITA</t>
+  </si>
+  <si>
+    <t>KAMUS MINI CV ITA</t>
+  </si>
+  <si>
+    <t>BUKU ATLAS DUNIA K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,14 +411,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8CCBB457-6A49-4874-A34D-1E9522FD31CB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,15 +733,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B604795-B852-48C4-BD26-C86B68A08D95}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
@@ -634,6 +914,1238 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>3000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>26000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>67000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>14000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>1500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>25000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>4000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>7000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>3000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>5000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>2000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>26000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>67000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>14000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>3000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>2000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>1500</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>25000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>4000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>7000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>3000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>5000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>2000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>26000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>67000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>14000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>3000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>2000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>1500</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>25000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>4000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>7000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>3000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>5000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>2000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>26000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>67000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>14000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>3000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>2000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>1500</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>25000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>4000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>3000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <v>5000</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>2000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>26000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65">
+        <v>67000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>14000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>3000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>2000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>1500</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>25000</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>4000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72">
+        <v>7000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73">
+        <v>3000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <v>5000</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75">
+        <v>2000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76">
+        <v>26000</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>67000</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>14000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>3000</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <v>2000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81">
+        <v>1500</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>25000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>4000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84">
+        <v>7000</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85">
+        <v>3000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86">
+        <v>5000</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87">
+        <v>2000</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88">
+        <v>26000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>67000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>14000</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91">
+        <v>3000</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92">
+        <v>2000</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93">
+        <v>1500</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>25000</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>4000</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96">
+        <v>7000</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>3000</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>5000</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>2000</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100">
+        <v>26000</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
